--- a/TestConfigSaved/Test1.xlsx
+++ b/TestConfigSaved/Test1.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LookUpTable" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Version" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Config" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LookUpTable" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Modified By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijit Tamke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial GUI</t>
+  </si>
   <si>
     <t xml:space="preserve">SOC Name</t>
   </si>
@@ -92,6 +117,18 @@
     <t xml:space="preserve">TI</t>
   </si>
   <si>
+    <t xml:space="preserve">MCU2_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeRTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCU2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCU3_0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data_Type</t>
   </si>
   <si>
@@ -137,6 +174,12 @@
     <t xml:space="preserve">Checksum</t>
   </si>
   <si>
+    <t xml:space="preserve">DataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aurix.Core1</t>
   </si>
   <si>
@@ -146,6 +189,15 @@
     <t xml:space="preserve">Sitara.MCU1_0</t>
   </si>
   <si>
+    <t xml:space="preserve">Sitara.MCU2_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitara.MCU2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitara.MCU3_0</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestData1</t>
   </si>
   <si>
@@ -168,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported signal</t>
   </si>
   <si>
     <t xml:space="preserve">Twhjda</t>
@@ -290,13 +348,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -305,113 +368,25 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -430,106 +405,365 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U12" activeCellId="0" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="20" style="0" width="14.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>3</v>
@@ -541,51 +775,66 @@
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
@@ -597,19 +846,34 @@
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
